--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.021590333333334</v>
+        <v>12.056684</v>
       </c>
       <c r="H2">
-        <v>6.064771</v>
+        <v>36.170052</v>
       </c>
       <c r="I2">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="J2">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1176943333333333</v>
+        <v>1.183046666666667</v>
       </c>
       <c r="N2">
-        <v>0.353083</v>
+        <v>3.54914</v>
       </c>
       <c r="O2">
-        <v>0.05829606481791055</v>
+        <v>0.6222589862820888</v>
       </c>
       <c r="P2">
-        <v>0.05829606481791055</v>
+        <v>0.6222589862820888</v>
       </c>
       <c r="Q2">
-        <v>0.2379297265547778</v>
+        <v>14.26361981725333</v>
       </c>
       <c r="R2">
-        <v>2.141367538993</v>
+        <v>128.37257835528</v>
       </c>
       <c r="S2">
-        <v>0.0006507370217243478</v>
+        <v>0.0392509920859673</v>
       </c>
       <c r="T2">
-        <v>0.0006507370217243479</v>
+        <v>0.0392509920859673</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.021590333333334</v>
+        <v>12.056684</v>
       </c>
       <c r="H3">
-        <v>6.064771</v>
+        <v>36.170052</v>
       </c>
       <c r="I3">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="J3">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.183046666666667</v>
+        <v>0.718166</v>
       </c>
       <c r="N3">
-        <v>3.54914</v>
+        <v>2.154498</v>
       </c>
       <c r="O3">
-        <v>0.5859837360842608</v>
+        <v>0.3777410137179113</v>
       </c>
       <c r="P3">
-        <v>0.5859837360842609</v>
+        <v>0.3777410137179112</v>
       </c>
       <c r="Q3">
-        <v>2.391635705215556</v>
+        <v>8.658700521543999</v>
       </c>
       <c r="R3">
-        <v>21.52472134694001</v>
+        <v>77.928304693896</v>
       </c>
       <c r="S3">
-        <v>0.006541115809265107</v>
+        <v>0.02382723249779732</v>
       </c>
       <c r="T3">
-        <v>0.006541115809265108</v>
+        <v>0.02382723249779732</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.021590333333334</v>
+        <v>25.140634</v>
       </c>
       <c r="H4">
-        <v>6.064771</v>
+        <v>75.421902</v>
       </c>
       <c r="I4">
-        <v>0.01116262347650641</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="J4">
-        <v>0.01116262347650641</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.718166</v>
+        <v>1.183046666666667</v>
       </c>
       <c r="N4">
-        <v>2.154498</v>
+        <v>3.54914</v>
       </c>
       <c r="O4">
-        <v>0.3557201990978286</v>
+        <v>0.6222589862820888</v>
       </c>
       <c r="P4">
-        <v>0.3557201990978286</v>
+        <v>0.6222589862820888</v>
       </c>
       <c r="Q4">
-        <v>1.451837443328667</v>
+        <v>29.74254325158667</v>
       </c>
       <c r="R4">
-        <v>13.066536989958</v>
+        <v>267.68288926428</v>
       </c>
       <c r="S4">
-        <v>0.003970770645516957</v>
+        <v>0.08184628760032199</v>
       </c>
       <c r="T4">
-        <v>0.003970770645516957</v>
+        <v>0.08184628760032199</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>75.421902</v>
       </c>
       <c r="I5">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="J5">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1176943333333333</v>
+        <v>0.718166</v>
       </c>
       <c r="N5">
-        <v>0.353083</v>
+        <v>2.154498</v>
       </c>
       <c r="O5">
-        <v>0.05829606481791055</v>
+        <v>0.3777410137179113</v>
       </c>
       <c r="P5">
-        <v>0.05829606481791055</v>
+        <v>0.3777410137179112</v>
       </c>
       <c r="Q5">
-        <v>2.958910158207333</v>
+        <v>18.055148557244</v>
       </c>
       <c r="R5">
-        <v>26.630191423866</v>
+        <v>162.496337015196</v>
       </c>
       <c r="S5">
-        <v>0.008092609577552992</v>
+        <v>0.04968461738401938</v>
       </c>
       <c r="T5">
-        <v>0.00809260957755299</v>
+        <v>0.04968461738401937</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.140634</v>
+        <v>153.9412893333333</v>
       </c>
       <c r="H6">
-        <v>75.421902</v>
+        <v>461.8238680000001</v>
       </c>
       <c r="I6">
-        <v>0.1388191398995883</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="J6">
-        <v>0.1388191398995883</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>3.54914</v>
       </c>
       <c r="O6">
-        <v>0.5859837360842608</v>
+        <v>0.6222589862820888</v>
       </c>
       <c r="P6">
-        <v>0.5859837360842609</v>
+        <v>0.6222589862820888</v>
       </c>
       <c r="Q6">
-        <v>29.74254325158667</v>
+        <v>182.1197292081689</v>
       </c>
       <c r="R6">
-        <v>267.68288926428</v>
+        <v>1639.07756287352</v>
       </c>
       <c r="S6">
-        <v>0.08134575823836443</v>
+        <v>0.5011617065957995</v>
       </c>
       <c r="T6">
-        <v>0.08134575823836443</v>
+        <v>0.5011617065957995</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>25.140634</v>
+        <v>153.9412893333333</v>
       </c>
       <c r="H7">
-        <v>75.421902</v>
+        <v>461.8238680000001</v>
       </c>
       <c r="I7">
-        <v>0.1388191398995883</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="J7">
-        <v>0.1388191398995883</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>2.154498</v>
       </c>
       <c r="O7">
-        <v>0.3557201990978286</v>
+        <v>0.3777410137179113</v>
       </c>
       <c r="P7">
-        <v>0.3557201990978286</v>
+        <v>0.3777410137179112</v>
       </c>
       <c r="Q7">
-        <v>18.055148557244</v>
+        <v>110.5553999953627</v>
       </c>
       <c r="R7">
-        <v>162.496337015196</v>
+        <v>994.9985999582641</v>
       </c>
       <c r="S7">
-        <v>0.04938077208367088</v>
+        <v>0.3042291638360946</v>
       </c>
       <c r="T7">
-        <v>0.04938077208367087</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>153.9412893333333</v>
-      </c>
-      <c r="H8">
-        <v>461.823868</v>
-      </c>
-      <c r="I8">
-        <v>0.8500182366239053</v>
-      </c>
-      <c r="J8">
-        <v>0.8500182366239052</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.1176943333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.353083</v>
-      </c>
-      <c r="O8">
-        <v>0.05829606481791055</v>
-      </c>
-      <c r="P8">
-        <v>0.05829606481791055</v>
-      </c>
-      <c r="Q8">
-        <v>18.11801742056045</v>
-      </c>
-      <c r="R8">
-        <v>163.062156785044</v>
-      </c>
-      <c r="S8">
-        <v>0.0495527182186332</v>
-      </c>
-      <c r="T8">
-        <v>0.0495527182186332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>153.9412893333333</v>
-      </c>
-      <c r="H9">
-        <v>461.823868</v>
-      </c>
-      <c r="I9">
-        <v>0.8500182366239053</v>
-      </c>
-      <c r="J9">
-        <v>0.8500182366239052</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.183046666666667</v>
-      </c>
-      <c r="N9">
-        <v>3.54914</v>
-      </c>
-      <c r="O9">
-        <v>0.5859837360842608</v>
-      </c>
-      <c r="P9">
-        <v>0.5859837360842609</v>
-      </c>
-      <c r="Q9">
-        <v>182.1197292081689</v>
-      </c>
-      <c r="R9">
-        <v>1639.07756287352</v>
-      </c>
-      <c r="S9">
-        <v>0.4980968620366313</v>
-      </c>
-      <c r="T9">
-        <v>0.4980968620366313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>153.9412893333333</v>
-      </c>
-      <c r="H10">
-        <v>461.823868</v>
-      </c>
-      <c r="I10">
-        <v>0.8500182366239053</v>
-      </c>
-      <c r="J10">
-        <v>0.8500182366239052</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.718166</v>
-      </c>
-      <c r="N10">
-        <v>2.154498</v>
-      </c>
-      <c r="O10">
-        <v>0.3557201990978286</v>
-      </c>
-      <c r="P10">
-        <v>0.3557201990978286</v>
-      </c>
-      <c r="Q10">
-        <v>110.5553999953627</v>
-      </c>
-      <c r="R10">
-        <v>994.9985999582639</v>
-      </c>
-      <c r="S10">
-        <v>0.3023686563686408</v>
-      </c>
-      <c r="T10">
-        <v>0.3023686563686408</v>
+        <v>0.3042291638360946</v>
       </c>
     </row>
   </sheetData>
